--- a/NEW HR/ANGCAYA, IRENE VILLANUEVA.xlsx
+++ b/NEW HR/ANGCAYA, IRENE VILLANUEVA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>2/17,18/2023</t>
+  </si>
+  <si>
+    <t>TICC</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,17 +742,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -760,6 +760,9 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,6 +771,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,7 +1295,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1338,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1402,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1462,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1528,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,7 +1591,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1689,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1748,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1813,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1856,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1925,7 +1931,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2117,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2183,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2241,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2307,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2363,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2438,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2481,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2547,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2603,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2699,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K86" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K87" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2723,7 +2729,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K115" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K119" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3070,12 +3076,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K86"/>
+  <dimension ref="A2:K87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3105,14 +3111,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3123,14 +3129,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3143,14 +3149,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3176,18 +3184,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3234,7 +3242,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>50</v>
+        <v>51.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3244,7 +3252,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>64</v>
+        <v>64.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4809,7 +4817,9 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
@@ -4818,21 +4828,29 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="39"/>
+      <c r="H84" s="39">
+        <v>1</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="49">
+        <v>44984</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>44986</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
+      <c r="G85" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4840,34 +4858,50 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="41"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="43"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="39"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="42" t="str">
+      <c r="F86" s="20"/>
+      <c r="G86" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="43"/>
+      <c r="H86" s="39"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="15"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="20"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="41"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="43"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4900,12 +4934,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K115"/>
+  <dimension ref="A2:K119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A97" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A109" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+      <selection pane="bottomLeft" activeCell="I115" sqref="I115:I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4935,14 +4969,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4953,14 +4987,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4973,14 +5007,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5006,18 +5040,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7340,6 +7374,70 @@
       <c r="K115" s="15" t="s">
         <v>102</v>
       </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="40"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="39"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="20"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="40"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="39"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="20"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="40"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="39"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="20"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="41"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H119" s="43"/>
+      <c r="I119" s="61"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/NEW HR/ANGCAYA, IRENE VILLANUEVA.xlsx
+++ b/NEW HR/ANGCAYA, IRENE VILLANUEVA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="106">
   <si>
     <t>PERIOD</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>TICC</t>
+  </si>
+  <si>
+    <t>5/12,15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -739,17 +742,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -760,9 +769,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,9 +777,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,7 +1298,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1341,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1405,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1465,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1531,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1594,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1692,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1751,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1816,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1859,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1934,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2120,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2186,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2244,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2310,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2366,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2441,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2484,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2550,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2606,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3078,7 +3081,7 @@
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
@@ -3103,16 +3106,16 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
@@ -3124,28 +3127,28 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
@@ -3184,18 +3187,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4891,17 +4894,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4936,10 +4939,10 @@
   </sheetPr>
   <dimension ref="A2:K119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A109" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="I115" sqref="I115:I122"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4961,16 +4964,16 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
@@ -4982,28 +4985,28 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
@@ -5040,18 +5043,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5098,7 +5101,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.900000000000006</v>
+        <v>44.900000000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7376,10 +7379,16 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
-      <c r="B116" s="20"/>
+      <c r="A116" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C116" s="13"/>
-      <c r="D116" s="39"/>
+      <c r="D116" s="39">
+        <v>3</v>
+      </c>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
       <c r="G116" s="13" t="str">
@@ -7389,7 +7398,9 @@
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
+      <c r="K116" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
@@ -7428,14 +7439,14 @@
       <c r="B119" s="15"/>
       <c r="C119" s="42"/>
       <c r="D119" s="43"/>
-      <c r="E119" s="61"/>
+      <c r="E119" s="50"/>
       <c r="F119" s="15"/>
       <c r="G119" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H119" s="43"/>
-      <c r="I119" s="61"/>
+      <c r="I119" s="50"/>
       <c r="J119" s="12"/>
       <c r="K119" s="15"/>
     </row>
@@ -7503,17 +7514,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -7594,12 +7605,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/NEW HR/ANGCAYA, IRENE VILLANUEVA.xlsx
+++ b/NEW HR/ANGCAYA, IRENE VILLANUEVA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -748,17 +748,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -768,6 +765,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1298,7 +1298,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1341,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1531,7 +1531,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1594,7 +1594,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1692,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1751,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1816,7 +1816,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1859,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1934,7 +1934,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2120,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2186,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2244,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2310,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2366,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2441,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2484,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2550,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2606,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,10 +3081,10 @@
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3114,14 +3114,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3132,14 +3132,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3152,16 +3152,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3187,18 +3187,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>52.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3255,7 +3255,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>64.25</v>
+        <v>65.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4861,15 +4861,19 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45017</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
+      <c r="G86" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -4877,7 +4881,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
+      <c r="A87" s="41">
+        <v>45047</v>
+      </c>
       <c r="B87" s="15"/>
       <c r="C87" s="42"/>
       <c r="D87" s="43"/>
@@ -4894,17 +4900,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4939,10 +4945,10 @@
   </sheetPr>
   <dimension ref="A2:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A109" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A97"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4972,14 +4978,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4990,14 +4996,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5010,14 +5016,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5043,18 +5049,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/ANGCAYA, IRENE VILLANUEVA.xlsx
+++ b/NEW HR/ANGCAYA, IRENE VILLANUEVA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
   <si>
     <t>PERIOD</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>5/12,15,16/2023</t>
+  </si>
+  <si>
+    <t>6/19,26/2023</t>
   </si>
 </sst>
 </file>
@@ -748,14 +751,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -765,9 +771,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1298,7 +1301,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1344,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1408,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1468,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1531,7 +1534,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1594,7 +1597,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1695,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1754,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1816,7 +1819,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1862,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1934,7 +1937,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2123,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2189,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2247,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2313,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2369,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2444,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2487,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2553,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2609,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2702,7 +2705,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K87" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K141" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3079,12 +3082,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K87"/>
+  <dimension ref="A2:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A80" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3114,14 +3117,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3132,14 +3135,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3152,16 +3155,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3187,18 +3190,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4898,19 +4901,897 @@
       <c r="J87" s="12"/>
       <c r="K87" s="15"/>
     </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="41">
+        <v>45078</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="39"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="20"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="41">
+        <v>45108</v>
+      </c>
+      <c r="B89" s="20"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H89" s="39"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="20"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="41">
+        <v>45139</v>
+      </c>
+      <c r="B90" s="20"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="39"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="20"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="41">
+        <v>45170</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="39"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="20"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="41">
+        <v>45200</v>
+      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="39"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="20"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="39"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="20"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="41">
+        <v>45261</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="39"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="20"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="40"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="39"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="20"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="40"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="39"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="20"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="40"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="39"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="20"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="40"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="39"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="20"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="40"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="39"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="20"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="40"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="39"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="20"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="40"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="39"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="20"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="40"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="39"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="20"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="40"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="39"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="20"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="40"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="39"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="20"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="40"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="39"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="20"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="40"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="39"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="20"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="40"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="39"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="20"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="40"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="39"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="20"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="40"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="39"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="20"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="40"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H110" s="39"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="20"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="40"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="39"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="20"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="40"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="39"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="20"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="40"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H113" s="39"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="20"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="40"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H114" s="39"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="20"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="40"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H115" s="39"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="20"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="40"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="39"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="20"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="40"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="39"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="20"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="40"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="39"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="20"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="40"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H119" s="39"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="20"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="40"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H120" s="39"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="20"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="40"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H121" s="39"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="20"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="40"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="39"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="20"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="40"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H123" s="39"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="20"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="40"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H124" s="39"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="20"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="40"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="39"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="20"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="40"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H126" s="39"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="20"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="40"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="39"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="20"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="40"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="39"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="40"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="39"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="40"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="41"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="43"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4945,10 +5826,10 @@
   </sheetPr>
   <dimension ref="A2:K119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A97" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
+      <selection pane="bottomLeft" activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,14 +5859,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4996,14 +5877,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5016,14 +5897,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5049,18 +5930,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5107,7 +5988,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.900000000000006</v>
+        <v>42.900000000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7409,10 +8290,16 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="20"/>
+      <c r="A117" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C117" s="13"/>
-      <c r="D117" s="39"/>
+      <c r="D117" s="39">
+        <v>2</v>
+      </c>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
       <c r="G117" s="13" t="str">
@@ -7422,7 +8309,9 @@
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
+      <c r="K117" s="20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>

--- a/NEW HR/ANGCAYA, IRENE VILLANUEVA.xlsx
+++ b/NEW HR/ANGCAYA, IRENE VILLANUEVA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="108">
   <si>
     <t>PERIOD</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>6/19,26/2023</t>
+  </si>
+  <si>
+    <t>9/15,22,25/2023</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2708,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K141" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K142" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3082,12 +3085,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K141"/>
+  <dimension ref="A2:K142"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A80" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3248,7 +3251,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3258,7 +3261,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>65.5</v>
+        <v>70.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4888,13 +4891,15 @@
         <v>45047</v>
       </c>
       <c r="B87" s="15"/>
-      <c r="C87" s="42"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="43"/>
       <c r="E87" s="9"/>
       <c r="F87" s="15"/>
-      <c r="G87" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="42">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="43"/>
       <c r="I87" s="9"/>
@@ -4906,13 +4911,15 @@
         <v>45078</v>
       </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -4924,13 +4931,15 @@
         <v>45108</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -4942,13 +4951,15 @@
         <v>45139</v>
       </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -4959,7 +4970,9 @@
       <c r="A91" s="41">
         <v>45170</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -4971,13 +4984,15 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49">
+        <v>45195</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="41">
-        <v>45200</v>
-      </c>
-      <c r="B92" s="20"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
@@ -4989,11 +5004,13 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="49">
+        <v>45197</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5011,7 +5028,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5028,7 +5045,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="41">
+        <v>45261</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5764,20 +5783,36 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="41"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="43"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="43"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
       <c r="I141" s="9"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="15"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="41"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="42"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="43"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5826,8 +5861,8 @@
   </sheetPr>
   <dimension ref="A2:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A97" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A103" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="K118" sqref="K118"/>
     </sheetView>
@@ -5988,7 +6023,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.900000000000006</v>
+        <v>39.900000000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -8314,10 +8349,16 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
-      <c r="B118" s="20"/>
+      <c r="A118" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C118" s="13"/>
-      <c r="D118" s="39"/>
+      <c r="D118" s="39">
+        <v>3</v>
+      </c>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
       <c r="G118" s="13" t="str">
@@ -8327,7 +8368,9 @@
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
+      <c r="K118" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
